--- a/biology/Botanique/Vanilla_ochyrae/Vanilla_ochyrae.xlsx
+++ b/biology/Botanique/Vanilla_ochyrae/Vanilla_ochyrae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vanilla ochyrae Szlach. &amp; Olszewski est une espèce d'Orchidées du genre Vanilla, originaire du Cameroun[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanilla ochyrae Szlach. &amp; Olszewski est une espèce d'Orchidées du genre Vanilla, originaire du Cameroun. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique ochyrae rend hommage au bryologiste polonais Ryszard Ochyra (en).
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle a d'abord été considérée comme une espèce menacée (EN), selon les critères de l'UICN, car elle n'avait été collectée que sur trois sites : dans la région du Centre, à Meven Nanga Eboko ; dans la région de l'Est à Bertoua, par Henri Jacques-Félix en 1939[3], et à Djomedjo (Djomedja ?)[4]. Dans l'intervalle elle a été récoltée également dans la réserve du Dja, où, quoique rare, elle bénéficie d'une certaine protection, mais elle reste vulnérable[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle a d'abord été considérée comme une espèce menacée (EN), selon les critères de l'UICN, car elle n'avait été collectée que sur trois sites : dans la région du Centre, à Meven Nanga Eboko ; dans la région de l'Est à Bertoua, par Henri Jacques-Félix en 1939, et à Djomedjo (Djomedja ?). Dans l'intervalle elle a été récoltée également dans la réserve du Dja, où, quoique rare, elle bénéficie d'une certaine protection, mais elle reste vulnérable.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane grimpante qu'on trouve sur les grands arbres de la forêt dense de terre ferme et à proximité de marécages, le plus souvent à une altitude comprise entre 600 et 700 m[5].
-Elle est proche de Vanilla imperialis, dont elle se distingue notamment par son labelle trilobé[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane grimpante qu'on trouve sur les grands arbres de la forêt dense de terre ferme et à proximité de marécages, le plus souvent à une altitude comprise entre 600 et 700 m.
+Elle est proche de Vanilla imperialis, dont elle se distingue notamment par son labelle trilobé.
 </t>
         </is>
       </c>
